--- a/Income/WY_inc.xlsx
+++ b/Income/WY_inc.xlsx
@@ -1914,10 +1914,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>0.3387</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.2768</v>
@@ -2043,10 +2041,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.2919</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.227</v>
@@ -2172,10 +2168,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.2052</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.1304</v>
@@ -2301,10 +2295,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.1598</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.1058</v>
@@ -2430,10 +2422,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.2256</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.1657</v>
@@ -2559,10 +2549,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>2893000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2182000000.0</v>
@@ -3971,10 +3959,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.2897</v>
@@ -4100,10 +4086,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>0.2576</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.203</v>
